--- a/stats2/tables/table1_2.xlsx
+++ b/stats2/tables/table1_2.xlsx
@@ -468,13 +468,13 @@
         <v>-3.48576</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.643559775647981</v>
+        <v>-2.619352915434749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01170728626839288</v>
+        <v>0.01212206404227414</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004101963920561451</v>
+        <v>0.004404837718957914</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.88202</v>
+        <v>-2.7366425</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.060235969633262</v>
+        <v>-1.916174102983627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04616072943437043</v>
+        <v>0.05972021172653137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01968799390228924</v>
+        <v>0.02767146926338101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01968799390228924</v>
+        <v>0.02767146926338101</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.27828</v>
+        <v>-1.987525</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.476912163618542</v>
+        <v>-1.212995290532504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1295129375670941</v>
+        <v>0.1794422316766141</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06984959197811004</v>
+        <v>0.1125658105401953</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0501615980758208</v>
+        <v>0.08489434127681432</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.67454</v>
+        <v>-1.2384075</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8935883576038232</v>
+        <v>-0.5098164780813814</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2585697473551932</v>
+        <v>0.3288414414772535</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1857710889014259</v>
+        <v>0.3050900201433608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1159214969233158</v>
+        <v>0.1925242096031655</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.0708</v>
+        <v>-0.48929</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3102645515891038</v>
+        <v>0.1933623343697412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3673384035357274</v>
+        <v>0.3675420075140613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3781798928173944</v>
+        <v>0.5766623942258237</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1924088039159685</v>
+        <v>0.2715723740824629</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.46706</v>
+        <v>0.2598275000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2730592544256157</v>
+        <v>0.8965411468208638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3713462335407078</v>
+        <v>0.250545139146757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6075961664365594</v>
+        <v>0.8150180926828161</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2294162736191651</v>
+        <v>0.2383556984569924</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1366799999999997</v>
+        <v>1.008945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8563830604403347</v>
+        <v>1.599719959271986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2671257647588238</v>
+        <v>0.1041654124974127</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8041070343223845</v>
+        <v>0.9451696389895344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1965108678858251</v>
+        <v>0.1301515463067183</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7404199999999994</v>
+        <v>1.7580625</v>
       </c>
       <c r="C9" t="n">
-        <v>1.439706866455054</v>
+        <v>2.302898771723109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1367340254840919</v>
+        <v>0.02641311687413969</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9250248250521672</v>
+        <v>0.989357730354311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1209177907297827</v>
+        <v>0.04418809136477653</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.34416</v>
+        <v>2.50718</v>
       </c>
       <c r="C10" t="n">
-        <v>2.023030672469773</v>
+        <v>3.006077584174232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04980368607132715</v>
+        <v>0.004084833192873002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.978465007357847</v>
+        <v>0.998676792673171</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05344018230567982</v>
+        <v>0.01064226964568904</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.978465007357847</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
